--- a/biology/Botanique/Tillandsia_purpurea/Tillandsia_purpurea.xlsx
+++ b/biology/Botanique/Tillandsia_purpurea/Tillandsia_purpurea.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Tillandsia purpurea Ruiz &amp; Pav. est une plante de la famille des Bromeliaceae.
 L'épithète purpurea signifie « pourpre » et se rapporte au coloris des pétales.
@@ -512,10 +524,12 @@
           <t>Protologue et type nomenclatural</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Tillandsia purpurea Ruiz &amp; Pav., Fl. Peruv. 3: 41, tab. 270a (1802)
-Diagnose originale[1] :
+Diagnose originale :
 « T. panicula polystachya rosacea, floribus distichis, petalorum laminis purpureis, foliis ensiformi-subulatis recurvis. »
 Type : Ruiz &amp; Pav., Fl. Peruv. : tab. 270a (1802)
 </t>
@@ -548,15 +562,14 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Synonymie nomenclaturale
-Platystachys purpurea (Ruiz &amp; Pav.) Beer
-Phytarrhiza purpurea (Ruiz &amp; Pav.) E.Morren ex Baker
-Synonymie taxonomique
-Tillandsia azurea Presl[2],[3]
-Tillandsia longibracteata Meyen[4],[3]
-Anoplophytum longebracteatum Beer[4],[2],[3],[5]
-Tillandsia scoparia Willd. ex Schult.f[3].
-Platystachys scoparia Beer[3]</t>
+          <t>Synonymie nomenclaturale</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Platystachys purpurea (Ruiz &amp; Pav.) Beer
+Phytarrhiza purpurea (Ruiz &amp; Pav.) E.Morren ex Baker</t>
         </is>
       </c>
     </row>
@@ -581,10 +594,24 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Description</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr"/>
+          <t>Synonymie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Synonymie taxonomique</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Tillandsia azurea Presl,
+Tillandsia longibracteata Meyen,
+Anoplophytum longebracteatum Beer
+Tillandsia scoparia Willd. ex Schult.f.
+Platystachys scoparia Beer</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -607,16 +634,12 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Écologie et habitat</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Biotype : plante herbacée en rosette monocarpique vivace par ses rejets latéraux ; saxicole[1], épiphyte[4] ou terrestre[1].
-Habitat : rochers et sols sableux[1],[3] ; déserts côtiers[2],[3].
-Altitude : de la côte jusqu'à 2800m[2] ; 0-900(-3000) m[3].</t>
-        </is>
-      </c>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -639,15 +662,16 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Distribution</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Amérique du sud :
- Pérou[1],[4],[2]
-Zones côtières désertiques[3]
-Régions andines[5]</t>
+          <t>Écologie et habitat</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Biotype : plante herbacée en rosette monocarpique vivace par ses rejets latéraux ; saxicole, épiphyte ou terrestre.
+Habitat : rochers et sols sableux, ; déserts côtiers,.
+Altitude : de la côte jusqu'à 2800m ; 0-900(-3000) m.</t>
         </is>
       </c>
     </row>
@@ -672,12 +696,49 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
+          <t>Distribution</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Amérique du sud :
+ Pérou
+Zones côtières désertiques
+Régions andines</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Tillandsia_purpurea</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Tillandsia_purpurea</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
           <t>Comportement en culture</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Tillandsia purpurea est de culture aisée[3].
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Tillandsia purpurea est de culture aisée.
 </t>
         </is>
       </c>
